--- a/documentos/Plantilla de Product Backlog.xlsx
+++ b/documentos/Plantilla de Product Backlog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Descargas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TP Inge 2\IS2\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12360"/>
   </bookViews>
   <sheets>
     <sheet name="Historias de Usuario" sheetId="1" r:id="rId1"/>
@@ -280,13 +280,13 @@
     <t>crear flujos Kanban</t>
   </si>
   <si>
-    <t>Elaborado por:  Jacqueline Gill, Pablo Aguilar, Porfirio Pérez y Óscar Vega</t>
+    <t>Elaborado por:  Jacqueline Gill, Pablo Aguilar, Porfirio Pérez y Oscar Vega</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -427,7 +427,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -746,14 +746,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.42578125" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.42578125" style="2" customWidth="1"/>
@@ -1044,7 +1044,7 @@
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
         <v>11</v>
       </c>
@@ -1315,14 +1315,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:C12"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="1.5703125" style="5" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="5" customWidth="1"/>

--- a/documentos/Plantilla de Product Backlog.xlsx
+++ b/documentos/Plantilla de Product Backlog.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="19001"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\TP Inge 2\IS2\documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PabloAg\Dropbox\Ingeniería de Software II\GitHub\IS2 TP\documentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="89">
   <si>
     <t>Columna</t>
   </si>
@@ -109,15 +109,9 @@
     <t>5/10</t>
   </si>
   <si>
-    <t>24/02/18-3/03/18</t>
-  </si>
-  <si>
     <t>10/10</t>
   </si>
   <si>
-    <t>Como administrador necesito borrar roles para los usuarios que ya no cumplen un rol en específico con la finalidad de actualización de los roles.</t>
-  </si>
-  <si>
     <t>borrar roles</t>
   </si>
   <si>
@@ -281,12 +275,36 @@
   </si>
   <si>
     <t>Elaborado por:  Jacqueline Gill, Pablo Aguilar, Porfirio Pérez y Oscar Vega</t>
+  </si>
+  <si>
+    <t>Como administrador necesito modificar roles para los usuarios con la finalidad de actualizacion de roles</t>
+  </si>
+  <si>
+    <t>Como administrador necesito borrar roles para los usuarios que ya no cumplen un rol en específico con la finalidad de eliminar los roles que ya no se utilizan.</t>
+  </si>
+  <si>
+    <t>modificar roles</t>
+  </si>
+  <si>
+    <t>24/02/18-28/02/18</t>
+  </si>
+  <si>
+    <t>01/03/18-05/03/18</t>
+  </si>
+  <si>
+    <t>06/02/18-11/03/18</t>
+  </si>
+  <si>
+    <t>Como administrador necesito modificar la cuenta de los usuarios con la finalidad de actualización de estos</t>
+  </si>
+  <si>
+    <t>modificar cuenta</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -502,23 +520,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -554,23 +555,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -747,10 +731,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +745,7 @@
     <col min="4" max="4" width="27.5703125" style="2" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="21.42578125" style="2" customWidth="1"/>
     <col min="8" max="8" width="17.85546875" style="2" customWidth="1"/>
     <col min="9" max="9" width="12.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="2" customWidth="1"/>
@@ -775,7 +759,7 @@
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -821,492 +805,540 @@
         <v>24</v>
       </c>
       <c r="G5" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="I5" s="9"/>
     </row>
-    <row r="6" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
         <v>2</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>27</v>
+        <v>81</v>
       </c>
       <c r="D6" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>29</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>25</v>
+        <v>85</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
-        <v>3</v>
-      </c>
-      <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>2</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>82</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
-        <v>4</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>33</v>
+        <v>84</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>87</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>37</v>
+        <v>88</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>33</v>
+        <v>85</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>33</v>
+        <v>86</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="I10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I11" s="9"/>
     </row>
     <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>43</v>
+        <v>31</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="I13" s="9"/>
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="I14" s="9"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="E15" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="I15" s="9"/>
     </row>
     <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="9">
+        <v>10</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I16" s="9"/>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B17" s="9">
+        <v>11</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="9">
         <v>12</v>
       </c>
-      <c r="C16" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G16" s="10" t="s">
+      <c r="C18" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="H16" s="10" t="s">
+      <c r="D18" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B17" s="9">
-        <v>13</v>
-      </c>
-      <c r="C17" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>61</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>55</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <v>14</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>63</v>
-      </c>
       <c r="E18" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>56</v>
+        <v>28</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="I18" s="9"/>
     </row>
     <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B19" s="9">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="E19" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F19" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I19" s="9"/>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B20" s="9">
+        <v>14</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B20" s="9">
-        <v>16</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>68</v>
-      </c>
       <c r="E20" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="I20" s="9"/>
     </row>
     <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B21" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="E21" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="I21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B22" s="9">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="E22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>56</v>
+        <v>27</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
+        <v>19</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>74</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I25" s="9"/>
+    </row>
+    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B26" s="9">
+        <v>20</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I26" s="9"/>
+    </row>
+    <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B27" s="9">
         <v>21</v>
       </c>
-      <c r="C25" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="E25" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" s="10" t="s">
-        <v>77</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="I25" s="9"/>
+      <c r="C27" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I27" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/documentos/Plantilla de Product Backlog.xlsx
+++ b/documentos/Plantilla de Product Backlog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -229,12 +229,6 @@
     <t>borrar proyecto</t>
   </si>
   <si>
-    <t>Como Scrum master necesito listar los clientes con la finalidad de saber a quién va dirigido el proyecto.</t>
-  </si>
-  <si>
-    <t>lidtado de clientes</t>
-  </si>
-  <si>
     <t>11/06/18-13/06/18</t>
   </si>
   <si>
@@ -299,6 +293,12 @@
   </si>
   <si>
     <t>modificar cuenta</t>
+  </si>
+  <si>
+    <t>listado de usuarios</t>
+  </si>
+  <si>
+    <t>Como Scrum master necesito listar los usuarios con la finalidad de ver los usuarios del sistema.</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -424,7 +424,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -731,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I27"/>
+  <dimension ref="B1:I28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -759,7 +762,7 @@
     </row>
     <row r="2" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B2" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="30" x14ac:dyDescent="0.25">
@@ -790,37 +793,37 @@
     </row>
     <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>21</v>
+        <v>79</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>81</v>
       </c>
       <c r="E5" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I5" s="9"/>
     </row>
     <row r="6" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="9">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>23</v>
@@ -829,7 +832,7 @@
         <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="H6" s="10" t="s">
         <v>28</v>
@@ -838,70 +841,70 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>86</v>
+        <v>31</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I7" s="9"/>
     </row>
     <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>29</v>
+        <v>37</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H9" s="10" t="s">
         <v>28</v>
@@ -925,7 +928,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>28</v>
@@ -934,61 +937,61 @@
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>36</v>
+        <v>25</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>31</v>
+        <v>49</v>
       </c>
       <c r="H11" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>23</v>
@@ -1006,74 +1009,60 @@
     </row>
     <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="9">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E14" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>16</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
-        <v>9</v>
-      </c>
-      <c r="C15" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="G15" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="10" t="s">
-        <v>28</v>
-      </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B16" s="9">
-        <v>10</v>
-      </c>
-      <c r="C16" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>25</v>
-      </c>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B16" s="9"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
@@ -1148,135 +1137,135 @@
       </c>
       <c r="I19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
+        <v>17</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>18</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
         <v>14</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>25</v>
-      </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
-        <v>15</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
-        <v>16</v>
-      </c>
-      <c r="C22" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="I22" s="9"/>
     </row>
     <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="9">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E23" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>46</v>
+        <v>24</v>
       </c>
       <c r="I23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="9">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>71</v>
+        <v>21</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>72</v>
+        <v>22</v>
       </c>
       <c r="E24" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="I24" s="9"/>
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
-        <v>19</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>73</v>
+        <v>3</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>23</v>
@@ -1285,31 +1274,31 @@
         <v>24</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="I25" s="9"/>
     </row>
     <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B26" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E26" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H26" s="10" t="s">
         <v>46</v>
@@ -1318,29 +1307,56 @@
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
+        <v>20</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I27" s="9"/>
+    </row>
+    <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B28" s="9">
         <v>21</v>
       </c>
-      <c r="C27" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F27" s="10" t="s">
+      <c r="C28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="G27" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="H27" s="10" t="s">
+      <c r="G28" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H28" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I27" s="9"/>
+      <c r="I28" s="9"/>
     </row>
   </sheetData>
+  <sortState ref="B5:I27">
+    <sortCondition ref="G5:G27"/>
+  </sortState>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup scale="70" orientation="landscape" r:id="rId1"/>
 </worksheet>

--- a/documentos/Plantilla de Product Backlog.xlsx
+++ b/documentos/Plantilla de Product Backlog.xlsx
@@ -16,7 +16,7 @@
     <sheet name="Instructivo" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$A$1:$I$31</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -734,10 +734,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I28"/>
+  <dimension ref="B1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -791,39 +791,39 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B5" s="9">
+        <v>1</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I5" s="9"/>
+    </row>
+    <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="9">
         <v>2</v>
       </c>
-      <c r="C5" s="11" t="s">
+      <c r="C6" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D6" s="9" t="s">
         <v>81</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>83</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9">
-        <v>4</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>86</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>23</v>
@@ -841,46 +841,46 @@
     </row>
     <row r="7" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="9">
-        <v>5</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E7" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>36</v>
+        <v>24</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>31</v>
+        <v>82</v>
       </c>
       <c r="H7" s="10" t="s">
         <v>25</v>
       </c>
       <c r="I7" s="9"/>
     </row>
-    <row r="8" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="9">
-        <v>6</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>37</v>
+        <v>4</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>85</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>38</v>
+        <v>86</v>
       </c>
       <c r="E8" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="H8" s="10" t="s">
         <v>28</v>
@@ -889,46 +889,46 @@
     </row>
     <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>80</v>
+        <v>34</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="I9" s="9"/>
     </row>
     <row r="10" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B10" s="9">
-        <v>4</v>
-      </c>
-      <c r="C10" s="11" t="s">
-        <v>32</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>37</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="E10" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>84</v>
+        <v>31</v>
       </c>
       <c r="H10" s="10" t="s">
         <v>28</v>
@@ -937,197 +937,197 @@
     </row>
     <row r="11" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B11" s="9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E11" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>49</v>
+        <v>84</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="I11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="9">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E12" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H12" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="10" t="s">
-        <v>27</v>
       </c>
       <c r="I12" s="9"/>
     </row>
     <row r="13" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="E13" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" s="9">
+        <v>7</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F14" s="10" t="s">
         <v>28</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B14" s="9">
-        <v>9</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>44</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>46</v>
       </c>
       <c r="G14" s="10" t="s">
         <v>41</v>
       </c>
       <c r="H14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B15" s="9">
+        <v>8</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="9">
-        <v>16</v>
-      </c>
-      <c r="C15" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="G15" s="10" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="H15" s="10" t="s">
         <v>27</v>
       </c>
       <c r="I15" s="9"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+    <row r="16" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B16" s="9">
+        <v>9</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="I16" s="9"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="9">
+        <v>16</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="H17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I17" s="9"/>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B18" s="9"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="9"/>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B19" s="9">
         <v>11</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C19" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D19" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="E17" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F17" s="10" t="s">
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H17" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B18" s="9">
-        <v>12</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="G18" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="H18" s="10" t="s">
-        <v>54</v>
-      </c>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B19" s="9">
-        <v>13</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>59</v>
       </c>
       <c r="G19" s="10" t="s">
         <v>53</v>
@@ -1139,118 +1139,118 @@
     </row>
     <row r="20" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="9">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B21" s="9">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" s="9"/>
+    </row>
+    <row r="22" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B22" s="9">
         <v>17</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C22" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="D22" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E20" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F20" s="10" t="s">
+      <c r="E22" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="10" t="s">
+      <c r="G22" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H20" s="10" t="s">
+      <c r="H22" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="9">
+      <c r="I22" s="9"/>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" s="9">
         <v>18</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C23" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D23" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="10" t="s">
+      <c r="E23" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H21" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="9">
+      <c r="I23" s="9"/>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" s="9">
         <v>14</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C24" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="D24" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="E22" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F22" s="10" t="s">
+      <c r="E24" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="G22" s="10" t="s">
+      <c r="G24" s="10" t="s">
         <v>62</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B23" s="9">
-        <v>15</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="E23" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B24" s="9">
-        <v>1</v>
-      </c>
-      <c r="C24" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F24" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>82</v>
       </c>
       <c r="H24" s="10" t="s">
         <v>25</v>
@@ -1259,67 +1259,43 @@
     </row>
     <row r="25" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="9">
-        <v>3</v>
-      </c>
-      <c r="C25" s="13" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>63</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="E25" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F25" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="10" t="s">
-        <v>82</v>
-      </c>
-      <c r="H25" s="10" t="s">
-        <v>25</v>
-      </c>
       <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="2:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="B26" s="9">
-        <v>19</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>72</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G26" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="H26" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="I26" s="9"/>
     </row>
     <row r="27" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B27" s="9">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="E27" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="G27" s="10" t="s">
         <v>73</v>
@@ -1331,27 +1307,51 @@
     </row>
     <row r="28" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B28" s="9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="9" t="s">
         <v>23</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>25</v>
+        <v>54</v>
       </c>
       <c r="G28" s="10" t="s">
         <v>73</v>
       </c>
       <c r="H28" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="I28" s="9"/>
+    </row>
+    <row r="29" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="B29" s="9">
+        <v>21</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F29" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="9"/>
+      <c r="G29" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I29" s="9"/>
     </row>
   </sheetData>
   <sortState ref="B5:I27">
